--- a/Core.xlsx
+++ b/Core.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Desktop\PHP\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Desktop\PHP\PHP-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80023165-643E-4733-A7BF-4A440706CDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E8D109-4C39-4CDB-B74B-62E2390F24CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>echo</t>
   </si>
@@ -36,9 +36,6 @@
     <t>print</t>
   </si>
   <si>
-    <t>print_r</t>
-  </si>
-  <si>
     <t>Built-in Functions</t>
   </si>
   <si>
@@ -63,165 +60,92 @@
     <t>string</t>
   </si>
   <si>
-    <t>PHP 2022</t>
-  </si>
-  <si>
     <t>gettype()</t>
   </si>
   <si>
     <t>Numbers Tricks</t>
   </si>
   <si>
+    <t>isolate the number without returning warning</t>
+  </si>
+  <si>
+    <t>the (int) here will ignore the fracions, and takes the number only</t>
+  </si>
+  <si>
+    <t>Type Casting</t>
+  </si>
+  <si>
+    <t>(bool) "";</t>
+  </si>
+  <si>
+    <t>اي سترنغ فارغ يعتبر فولس او صفر</t>
+  </si>
+  <si>
+    <t>اي سنرنغ او فاريابل بيه اي كاراكتر او اي رقم,, يعتبر ترو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(bool) 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(bool) '0'; </t>
+  </si>
+  <si>
+    <t>var_dump()</t>
+  </si>
+  <si>
+    <t>return some information about variables</t>
+  </si>
+  <si>
+    <t>print_r()</t>
+  </si>
+  <si>
+    <t>echo 3 + (int) "4 items";</t>
+  </si>
+  <si>
+    <t>echo 3 + (intger) "4 items";</t>
+  </si>
+  <si>
+    <t>echo 3 + (int) 4.5;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">this will consider the empty value as </t>
+    </r>
     <r>
       <rPr>
-        <b/>
+        <i/>
         <sz val="12"/>
+        <color theme="0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>echo 3 +</t>
+      <t>false</t>
+    </r>
+  </si>
+  <si>
+    <t>(bool) "sdfg";</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">this will consider the empty value as </t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <i/>
         <sz val="12"/>
-        <color rgb="FF0070C0"/>
+        <color theme="0"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> (int) </t>
+      <t>True</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"4 items"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t>isolate the number without returning warning</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>echo 3 +</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (intger) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"4 items"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">echo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> +</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (int) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>4.5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t>the (int) here will ignore the fracions, and takes the number only</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,15 +176,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF0070C0"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="10"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -268,48 +184,68 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF0070C0"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="2" tint="-0.749992370372631"/>
+      <color rgb="FFFFC000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color rgb="FFFFC000"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="5"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="8" tint="-0.249977111117893"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -323,12 +259,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="3" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -351,12 +287,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -364,28 +324,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,43 +653,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="30.90625" defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.81640625" style="3"/>
-    <col min="2" max="16384" width="29.81640625" style="1"/>
+    <col min="1" max="1" width="30.90625" style="11"/>
+    <col min="2" max="16384" width="30.90625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="6" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="36.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" location="'Built-in Functions'!A1" display="Built-in Functions" xr:uid="{1D1453B8-A60C-4F94-B280-ACF8A04AE501}"/>
-    <hyperlink ref="A2" location="'Data types'!A1" display="Data Types" xr:uid="{8F19744F-9ECB-49B2-A077-A433E7776CFF}"/>
-    <hyperlink ref="A4" location="'Numbers Tricks'!A1" display="Numbers Tricks" xr:uid="{92B099E0-23DA-4A25-AA79-A79E39B85792}"/>
+    <hyperlink ref="A2" location="'Built-in Functions'!A1" display="Built-in Functions" xr:uid="{1D1453B8-A60C-4F94-B280-ACF8A04AE501}"/>
+    <hyperlink ref="A1" location="'Data types'!A1" display="Data Types" xr:uid="{8F19744F-9ECB-49B2-A077-A433E7776CFF}"/>
+    <hyperlink ref="A3" location="'Numbers Tricks'!A1" display="Numbers Tricks" xr:uid="{92B099E0-23DA-4A25-AA79-A79E39B85792}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -714,46 +691,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7CEB63-78C9-48A9-A19E-E0BA0C76F1EE}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.81640625" defaultRowHeight="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="29.81640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="69" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="29.81640625" style="1"/>
+    <col min="1" max="1" width="38.453125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="69" style="14" customWidth="1"/>
+    <col min="3" max="3" width="56.90625" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="29.81640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="10" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="16"/>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="16"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="10"/>
-    </row>
-    <row r="6" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="B10" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="14" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -761,7 +780,7 @@
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Sheet1!A1" display="Home" xr:uid="{5F774412-D9BE-4EAC-B70A-236B0F72DA56}"/>
+    <hyperlink ref="A1" location="Sheet1!A1" display="Home" xr:uid="{24C91872-7216-4171-9F29-C4F0C4F50042}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -769,7 +788,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC05C6F-76BA-479A-A36A-D9CA4643F1CF}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -779,9 +798,14 @@
     <col min="2" max="16384" width="29.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
-        <v>4</v>
+    <row r="1" spans="1:1" s="5" customFormat="1" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -802,11 +826,6 @@
     <row r="6" spans="1:1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -819,38 +838,51 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B380B201-A34C-45F2-8F26-1BE32C325270}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.81640625" defaultRowHeight="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="29.81640625" style="1"/>
+    <col min="1" max="1" width="29.81640625" style="1"/>
+    <col min="2" max="2" width="93.453125" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="29.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:2" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Core.xlsx
+++ b/Core.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Desktop\PHP\PHP-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E8D109-4C39-4CDB-B74B-62E2390F24CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FBBC99-3FD0-4442-B8FD-1BAA1308A55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Numbers Tricks" sheetId="4" r:id="rId2"/>
-    <sheet name="Data types" sheetId="2" r:id="rId3"/>
-    <sheet name="Built-in Functions" sheetId="3" r:id="rId4"/>
+    <sheet name="Heredoc &amp; Nowdoc" sheetId="5" r:id="rId2"/>
+    <sheet name="Numbers Tricks" sheetId="4" r:id="rId3"/>
+    <sheet name="Data types" sheetId="2" r:id="rId4"/>
+    <sheet name="Built-in Functions" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>echo</t>
   </si>
@@ -75,21 +76,12 @@
     <t>Type Casting</t>
   </si>
   <si>
-    <t>(bool) "";</t>
-  </si>
-  <si>
     <t>اي سترنغ فارغ يعتبر فولس او صفر</t>
   </si>
   <si>
     <t>اي سنرنغ او فاريابل بيه اي كاراكتر او اي رقم,, يعتبر ترو</t>
   </si>
   <si>
-    <t xml:space="preserve">(bool) 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(bool) '0'; </t>
-  </si>
-  <si>
     <t>var_dump()</t>
   </si>
   <si>
@@ -99,15 +91,6 @@
     <t>print_r()</t>
   </si>
   <si>
-    <t>echo 3 + (int) "4 items";</t>
-  </si>
-  <si>
-    <t>echo 3 + (intger) "4 items";</t>
-  </si>
-  <si>
-    <t>echo 3 + (int) 4.5;</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">this will consider the empty value as </t>
     </r>
@@ -123,9 +106,6 @@
     </r>
   </si>
   <si>
-    <t>(bool) "sdfg";</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">this will consider the empty value as </t>
     </r>
@@ -139,13 +119,256 @@
       </rPr>
       <t>True</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">echo 3 + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(int) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"4 items";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">echo 3 + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(intger)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> "4 items";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">echo 3 + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 4.5;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(bool)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> "";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(bool)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> "sdfg";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(bool)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 0 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(bool)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> '0'; </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(bool)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> array();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(bool)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> array(2);</t>
+    </r>
+  </si>
+  <si>
+    <t>nl2br()</t>
+  </si>
+  <si>
+    <t>Inserts HTML line breaks before all newlines in a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n </t>
+  </si>
+  <si>
+    <t>Heredoc &amp; Nowdoc</t>
+  </si>
+  <si>
+    <t>echo &lt;&lt;&lt;"myDiv"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    parsable text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    …</t>
+  </si>
+  <si>
+    <t>myDiv;</t>
+  </si>
+  <si>
+    <t>echo &lt;&lt;&lt;'myP'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Non-parsable text</t>
+  </si>
+  <si>
+    <t>Allows us to call vars within it</t>
+  </si>
+  <si>
+    <t>Converts everything to plain text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +472,22 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +497,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -363,13 +606,22 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,9 +905,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.90625" defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -678,11 +932,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="'Built-in Functions'!A1" display="Built-in Functions" xr:uid="{1D1453B8-A60C-4F94-B280-ACF8A04AE501}"/>
     <hyperlink ref="A1" location="'Data types'!A1" display="Data Types" xr:uid="{8F19744F-9ECB-49B2-A077-A433E7776CFF}"/>
     <hyperlink ref="A3" location="'Numbers Tricks'!A1" display="Numbers Tricks" xr:uid="{92B099E0-23DA-4A25-AA79-A79E39B85792}"/>
+    <hyperlink ref="A4" location="'Heredoc &amp; Nowdoc'!A1" display="Heredoc &amp; Nowdoc" xr:uid="{486F93B9-F9D1-4446-9212-03A1FE0D67DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -690,8 +950,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A3A2C3-0333-4FDE-BD0A-7BD429999E33}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="29.81640625" defaultRowHeight="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.81640625" style="2"/>
+    <col min="2" max="16384" width="29.81640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="21" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+    </row>
+    <row r="9" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Sheet1!A1" display="Home" xr:uid="{7DF1DAB6-CD83-4345-9DDB-1BFBC84929F2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7CEB63-78C9-48A9-A19E-E0BA0C76F1EE}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -715,52 +1049,52 @@
     </row>
     <row r="3" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="B4" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" s="14" t="b">
         <v>0</v>
@@ -768,10 +1102,26 @@
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B11" s="14" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="14" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -783,10 +1133,11 @@
     <hyperlink ref="A1" location="Sheet1!A1" display="Home" xr:uid="{24C91872-7216-4171-9F29-C4F0C4F50042}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC05C6F-76BA-479A-A36A-D9CA4643F1CF}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -836,53 +1187,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B380B201-A34C-45F2-8F26-1BE32C325270}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.81640625" defaultRowHeight="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.81640625" style="1"/>
-    <col min="2" max="2" width="93.453125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="93.453125" style="17" customWidth="1"/>
     <col min="3" max="16384" width="29.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="8" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-    </row>
-    <row r="2" spans="1:2" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
